--- a/xlsx/权利_intext.xlsx
+++ b/xlsx/权利_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="528">
   <si>
     <t>权利</t>
   </si>
@@ -26,16 +26,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>權利</t>
-  </si>
-  <si>
     <t>政策_政策_政治_权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>自然權利</t>
+    <t>自然权利</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Claim_rights_and_liberty_rights</t>
@@ -59,7 +56,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E6%9C%AC%E6%AC%8A</t>
   </si>
   <si>
-    <t>基本權</t>
+    <t>基本权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E3%80%81%E7%A4%BE%E4%BC%9A%E5%92%8C%E6%96%87%E5%8C%96%E6%9D%83%E5%88%A9</t>
@@ -77,7 +74,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>人權</t>
+    <t>人权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A8%E7%89%A9%E6%9D%83%E5%88%A9</t>
@@ -89,7 +86,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%97%E4%BD%9C%E6%AC%8A</t>
   </si>
   <si>
-    <t>著作權</t>
+    <t>着作权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%BF%E7%AB%A5%E6%9D%83%E5%88%A9</t>
@@ -107,7 +104,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E8%80%85%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>消費者權利</t>
+    <t>消费者权利</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Fathers%27_rights_movement</t>
@@ -119,7 +116,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8D%E6%AC%8A</t>
   </si>
   <si>
-    <t>母權</t>
+    <t>母权</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Fetal_rights</t>
@@ -137,13 +134,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E6%AC%8A%E7%A5%9E%E6%8E%88</t>
   </si>
   <si>
-    <t>君權神授</t>
+    <t>君权神授</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>女性權利</t>
+    <t>女性权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B7%E6%9D%83%E8%BF%90%E5%8A%A8</t>
@@ -185,19 +182,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E8%87%AA%E7%94%B1%E6%AC%8A</t>
   </si>
   <si>
-    <t>公民自由權</t>
+    <t>公民自由权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E4%BD%8D%E8%91%97%E4%BD%9C%E6%AC%8A</t>
   </si>
   <si>
-    <t>數位著作權</t>
+    <t>数位着作权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>語言權利</t>
+    <t>语言权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E8%82%B2%E6%9D%83</t>
@@ -209,7 +206,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>Template talk-權利</t>
+    <t>Template talk-权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1</t>
@@ -257,7 +254,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>經濟自由</t>
+    <t>经济自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E6%9C%AF%E8%87%AA%E7%94%B1</t>
@@ -281,7 +278,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>資訊自由</t>
+    <t>资讯自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E8%87%AA%E7%94%B1</t>
@@ -293,7 +290,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%80%E8%AB%96%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>言論自由</t>
+    <t>言论自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%BA%E7%89%88%E8%87%AA%E7%94%B1</t>
@@ -305,19 +302,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%81%9E%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>新聞自由</t>
+    <t>新闻自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E6%9C%83%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>集會自由</t>
+    <t>集会自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E7%A4%BE%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>結社自由</t>
+    <t>结社自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
@@ -341,7 +338,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B</t>
   </si>
   <si>
-    <t>權力</t>
+    <t>权力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%9B%8A</t>
@@ -353,37 +350,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AA%9E</t>
   </si>
   <si>
-    <t>德語</t>
+    <t>德语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%95%99%E5%A3%AB</t>
   </si>
   <si>
-    <t>傳教士</t>
+    <t>传教士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%81%E9%9F%99%E8%89%AF</t>
   </si>
   <si>
-    <t>丁韙良</t>
+    <t>丁韪良</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E5%9C%8B%E5%85%AC%E6%B3%95</t>
   </si>
   <si>
-    <t>萬國公法</t>
+    <t>万国公法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -413,7 +410,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%AD%98%E6%AC%8A</t>
   </si>
   <si>
-    <t>生存權</t>
+    <t>生存权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E8%82%B2</t>
@@ -437,7 +434,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%8B%99</t>
   </si>
   <si>
-    <t>義務</t>
+    <t>义务</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
@@ -461,13 +458,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B5%E6%AC%8A</t>
   </si>
   <si>
-    <t>債權</t>
+    <t>债权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%B5%E5%8B%99%E4%BA%BA</t>
   </si>
   <si>
-    <t>債務人</t>
+    <t>债务人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%80%E6%9C%89%E6%9D%83</t>
@@ -479,7 +476,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%85</t>
   </si>
   <si>
-    <t>稅</t>
+    <t>税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%8B%E7%96%BE%E4%BA%BA</t>
@@ -497,19 +494,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E6%AC%8A</t>
   </si>
   <si>
-    <t>公民權</t>
+    <t>公民权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%AC%8A</t>
   </si>
   <si>
-    <t>路權</t>
+    <t>路权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%AC%8A</t>
   </si>
   <si>
-    <t>水權</t>
+    <t>水权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%BD%B9%E6%9D%83</t>
@@ -533,13 +530,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%BA%BA%E6%AC%8A%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>世界人權宣言</t>
+    <t>世界人权宣言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%A2%9D%E4%BB%B6%E5%9F%BA%E6%9C%AC%E6%94%B6%E5%85%A5</t>
   </si>
   <si>
-    <t>無條件基本收入</t>
+    <t>无条件基本收入</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E7%90%86%E5%AD%A6</t>
@@ -551,13 +548,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E5%80%AB%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>應用倫理學</t>
+    <t>应用伦理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%8F%E7%AF%84%E5%80%AB%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>規範倫理學</t>
+    <t>规范伦理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E4%BC%A6%E7%90%86%E5%AD%A6</t>
@@ -569,43 +566,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8F%8F%E8%BF%B0%E5%80%AB%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>描述倫理學</t>
+    <t>描述伦理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%AD%B8%E5%80%AB%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>醫學倫理學</t>
+    <t>医学伦理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E5%80%AB%E7%90%86</t>
   </si>
   <si>
-    <t>工程倫理</t>
+    <t>工程伦理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E6%A5%AD%E5%80%AB%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>專業倫理學</t>
+    <t>专业伦理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%80%AB%E7%90%86</t>
   </si>
   <si>
-    <t>環境倫理</t>
+    <t>环境伦理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%80%AB%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物倫理學</t>
+    <t>生物伦理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%80%AB%E7%90%86</t>
   </si>
   <si>
-    <t>性倫理</t>
+    <t>性伦理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E4%B8%BB</t>
@@ -641,7 +638,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E7%BE%A9</t>
   </si>
   <si>
-    <t>正義</t>
+    <t>正义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E7%90%86</t>
@@ -671,7 +668,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E7%AD%89%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>平等原則</t>
+    <t>平等原则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E4%BB%BB</t>
@@ -683,31 +680,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E8%AD%98</t>
   </si>
   <si>
-    <t>共識</t>
+    <t>共识</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E6%9D%83%E5%88%A9</t>
   </si>
   <si>
-    <t>自然权利</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%9D%83</t>
   </si>
   <si>
-    <t>人权</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E7%BE%A9%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>正義戰爭</t>
+    <t>正义战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%83%B9%E5%80%BC%E8%AB%96</t>
   </si>
   <si>
-    <t>價值論</t>
+    <t>价值论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%9F%E5%88%A9%E4%B8%BB%E4%B9%89</t>
@@ -731,7 +722,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%80%A7%E5%80%AB%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>德性倫理學</t>
+    <t>德性伦理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%8B%89%E5%9B%BE</t>
@@ -821,7 +812,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BD%8A%E5%85%8B%E6%9E%9C</t>
   </si>
   <si>
-    <t>齊克果</t>
+    <t>齐克果</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%B8%8C%C2%B7%E5%B0%BC%E9%87%87</t>
@@ -887,7 +878,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E8%96%A9%E9%87%8C</t>
   </si>
   <si>
-    <t>安薩里</t>
+    <t>安萨里</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Saul_Alinsky</t>
@@ -905,7 +896,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%AC%C2%B7%E9%AD%AF%E4%B8%96%E5%BE%B7</t>
   </si>
   <si>
-    <t>伊本·魯世德</t>
+    <t>伊本·鲁世德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%85%B0%C2%B7%E5%B7%B4%E8%BF%AA%E6%AC%A7</t>
@@ -941,7 +932,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%B4%8D%E5%BE%B7</t>
   </si>
   <si>
-    <t>波納德</t>
+    <t>波纳德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E7%BA%B3%E5%BE%B7%C2%B7%E9%B2%8D%E6%A1%91%E8%91%B5</t>
@@ -1205,7 +1196,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%95%E5%A1%9E%C2%B7%E5%A5%A7%E7%89%B9%E5%98%89%C2%B7%E4%BC%8A%C2%B7%E5%8A%A0%E5%A1%9E%E7%89%B9</t>
   </si>
   <si>
-    <t>何塞·奧特嘉·伊·加塞特</t>
+    <t>何塞·奥特嘉·伊·加塞特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%BC%97%E9%9B%B7%E5%A4%9A%C2%B7%E5%B8%95%E7%B4%AF%E6%89%98</t>
@@ -1235,7 +1226,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%85%A7%E6%96%AF%E7%89%B9%C2%B7%E5%8B%92%E5%8D%97</t>
   </si>
   <si>
-    <t>歐內斯特·勒南</t>
+    <t>欧内斯特·勒南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A9-%E9%9B%85%E5%85%8B%C2%B7%E5%8D%A2%E6%A2%AD</t>
@@ -1319,7 +1310,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%85%8B%E6%96%AF%C2%B7%E6%96%BD%E8%92%82%E7%B4%8D</t>
   </si>
   <si>
-    <t>麥克斯·施蒂納</t>
+    <t>麦克斯·施蒂纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%A5%A5%C2%B7%E6%96%BD%E7%89%B9%E5%8A%B3%E6%96%AF</t>
@@ -1349,7 +1340,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E7%B1%B3%C2%B7%E7%B6%AD%E9%9F%8B%E5%8D%A1%E5%8D%97%E9%81%94</t>
   </si>
   <si>
-    <t>斯瓦米·維韋卡南達</t>
+    <t>斯瓦米·维韦卡南达</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Michael_Walzer</t>
@@ -1361,7 +1352,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%8B%89%E6%B2%83%E7%86%B1%C2%B7%E9%BD%8A%E6%BE%A4%E5%85%8B</t>
   </si>
   <si>
-    <t>斯拉沃熱·齊澤克</t>
+    <t>斯拉沃热·齐泽克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E6%94%BF%E5%BA%9C%E4%B8%BB%E4%B9%89</t>
@@ -1457,7 +1448,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>民族自由主義</t>
+    <t>民族自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%BB%BA%E6%9E%84%E4%B8%BB%E4%B9%89</t>
@@ -1487,7 +1478,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%88%E7%9B%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>效益主義</t>
+    <t>效益主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E4%B8%8D%E6%9C%8D%E4%BB%8E</t>
@@ -1511,7 +1502,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%B9%B3%E6%AD%A3%E7%BE%A9</t>
   </si>
   <si>
-    <t>公平正義</t>
+    <t>公平正义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E5%91%BD</t>
@@ -1541,7 +1532,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%A5%91%E7%B4%84</t>
   </si>
   <si>
-    <t>社會契約</t>
+    <t>社会契约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E4%BA%89</t>
@@ -1601,13 +1592,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -2007,13 +1998,13 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
         <v>3</v>
@@ -2033,16 +2024,16 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
         <v>3</v>
@@ -2062,16 +2053,16 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
         <v>3</v>
@@ -2091,16 +2082,16 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
         <v>3</v>
@@ -2120,16 +2111,16 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
         <v>3</v>
@@ -2149,16 +2140,16 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
         <v>3</v>
@@ -2178,16 +2169,16 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>3</v>
@@ -2207,16 +2198,16 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
       </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
         <v>3</v>
@@ -2236,16 +2227,16 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
         <v>3</v>
@@ -2265,16 +2256,16 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
       </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
         <v>3</v>
@@ -2294,16 +2285,16 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
         <v>3</v>
@@ -2323,16 +2314,16 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
       </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
         <v>3</v>
@@ -2352,16 +2343,16 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
       </c>
-      <c r="F14" t="s">
-        <v>28</v>
-      </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
         <v>3</v>
@@ -2381,16 +2372,16 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
       </c>
-      <c r="F15" t="s">
-        <v>30</v>
-      </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
         <v>3</v>
@@ -2410,16 +2401,16 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
       </c>
-      <c r="F16" t="s">
-        <v>32</v>
-      </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
         <v>3</v>
@@ -2439,16 +2430,16 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
       </c>
-      <c r="F17" t="s">
-        <v>34</v>
-      </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
         <v>3</v>
@@ -2468,16 +2459,16 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
       </c>
-      <c r="F18" t="s">
-        <v>36</v>
-      </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
         <v>3</v>
@@ -2497,16 +2488,16 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
       </c>
-      <c r="F19" t="s">
-        <v>38</v>
-      </c>
       <c r="G19" t="n">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
         <v>3</v>
@@ -2526,16 +2517,16 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
       </c>
-      <c r="F20" t="s">
-        <v>40</v>
-      </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
         <v>3</v>
@@ -2555,16 +2546,16 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
       </c>
-      <c r="F21" t="s">
-        <v>42</v>
-      </c>
       <c r="G21" t="n">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
         <v>3</v>
@@ -2584,16 +2575,16 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
       </c>
-      <c r="F22" t="s">
-        <v>44</v>
-      </c>
       <c r="G22" t="n">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
         <v>3</v>
@@ -2613,16 +2604,16 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
       </c>
-      <c r="F23" t="s">
-        <v>46</v>
-      </c>
       <c r="G23" t="n">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
         <v>3</v>
@@ -2642,16 +2633,16 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
       </c>
       <c r="H24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
         <v>3</v>
@@ -2671,16 +2662,16 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
       </c>
-      <c r="F25" t="s">
-        <v>50</v>
-      </c>
       <c r="G25" t="n">
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
         <v>3</v>
@@ -2700,16 +2691,16 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
       </c>
-      <c r="F26" t="s">
-        <v>52</v>
-      </c>
       <c r="G26" t="n">
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
         <v>3</v>
@@ -2729,16 +2720,16 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
       </c>
-      <c r="F27" t="s">
-        <v>54</v>
-      </c>
       <c r="G27" t="n">
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
         <v>3</v>
@@ -2758,16 +2749,16 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
       </c>
-      <c r="F28" t="s">
-        <v>56</v>
-      </c>
       <c r="G28" t="n">
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I28" t="n">
         <v>3</v>
@@ -2787,16 +2778,16 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
       </c>
-      <c r="F29" t="s">
-        <v>58</v>
-      </c>
       <c r="G29" t="n">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
         <v>3</v>
@@ -2816,16 +2807,16 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
       </c>
-      <c r="F30" t="s">
-        <v>60</v>
-      </c>
       <c r="G30" t="n">
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I30" t="n">
         <v>3</v>
@@ -2845,16 +2836,16 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
       </c>
-      <c r="F31" t="s">
-        <v>62</v>
-      </c>
       <c r="G31" t="n">
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I31" t="n">
         <v>3</v>
@@ -2874,16 +2865,16 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>18</v>
       </c>
       <c r="H32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I32" t="n">
         <v>3</v>
@@ -2903,16 +2894,16 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
         <v>3</v>
@@ -2932,16 +2923,16 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
       </c>
-      <c r="F34" t="s">
-        <v>68</v>
-      </c>
       <c r="G34" t="n">
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I34" t="n">
         <v>3</v>
@@ -2961,16 +2952,16 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
       </c>
-      <c r="F35" t="s">
-        <v>70</v>
-      </c>
       <c r="G35" t="n">
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I35" t="n">
         <v>3</v>
@@ -2990,16 +2981,16 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
       </c>
-      <c r="F36" t="s">
-        <v>72</v>
-      </c>
       <c r="G36" t="n">
         <v>3</v>
       </c>
       <c r="H36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I36" t="n">
         <v>3</v>
@@ -3019,16 +3010,16 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
       </c>
-      <c r="F37" t="s">
-        <v>74</v>
-      </c>
       <c r="G37" t="n">
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I37" t="n">
         <v>3</v>
@@ -3048,16 +3039,16 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>11</v>
       </c>
       <c r="H38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I38" t="n">
         <v>3</v>
@@ -3077,16 +3068,16 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>7</v>
       </c>
       <c r="H39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I39" t="n">
         <v>3</v>
@@ -3106,16 +3097,16 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
       </c>
       <c r="H40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I40" t="n">
         <v>3</v>
@@ -3135,16 +3126,16 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
       </c>
-      <c r="F41" t="s">
-        <v>82</v>
-      </c>
       <c r="G41" t="n">
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I41" t="n">
         <v>3</v>
@@ -3164,16 +3155,16 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
       </c>
-      <c r="F42" t="s">
-        <v>84</v>
-      </c>
       <c r="G42" t="n">
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I42" t="n">
         <v>3</v>
@@ -3193,16 +3184,16 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
       </c>
-      <c r="F43" t="s">
-        <v>86</v>
-      </c>
       <c r="G43" t="n">
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
         <v>3</v>
@@ -3222,16 +3213,16 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
       </c>
-      <c r="F44" t="s">
-        <v>88</v>
-      </c>
       <c r="G44" t="n">
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I44" t="n">
         <v>3</v>
@@ -3251,16 +3242,16 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
       </c>
       <c r="H45" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I45" t="n">
         <v>3</v>
@@ -3280,16 +3271,16 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
       </c>
-      <c r="F46" t="s">
-        <v>92</v>
-      </c>
       <c r="G46" t="n">
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I46" t="n">
         <v>3</v>
@@ -3309,16 +3300,16 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
       </c>
-      <c r="F47" t="s">
-        <v>94</v>
-      </c>
       <c r="G47" t="n">
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I47" t="n">
         <v>3</v>
@@ -3338,16 +3329,16 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
       </c>
-      <c r="F48" t="s">
-        <v>96</v>
-      </c>
       <c r="G48" t="n">
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I48" t="n">
         <v>3</v>
@@ -3367,16 +3358,16 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
       </c>
-      <c r="F49" t="s">
-        <v>98</v>
-      </c>
       <c r="G49" t="n">
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I49" t="n">
         <v>3</v>
@@ -3396,16 +3387,16 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
       </c>
-      <c r="F50" t="s">
-        <v>100</v>
-      </c>
       <c r="G50" t="n">
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I50" t="n">
         <v>3</v>
@@ -3425,16 +3416,16 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>16</v>
       </c>
       <c r="H51" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I51" t="n">
         <v>3</v>
@@ -3454,16 +3445,16 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>7</v>
       </c>
       <c r="H52" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I52" t="n">
         <v>3</v>
@@ -3483,16 +3474,16 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
       </c>
-      <c r="F53" t="s">
-        <v>106</v>
-      </c>
       <c r="G53" t="n">
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I53" t="n">
         <v>3</v>
@@ -3512,16 +3503,16 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>4</v>
       </c>
       <c r="H54" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I54" t="n">
         <v>3</v>
@@ -3541,16 +3532,16 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>10</v>
       </c>
       <c r="H55" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I55" t="n">
         <v>3</v>
@@ -3570,16 +3561,16 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" t="s">
         <v>19</v>
-      </c>
-      <c r="F56" t="s">
-        <v>20</v>
       </c>
       <c r="G56" t="n">
         <v>6</v>
       </c>
       <c r="H56" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I56" t="n">
         <v>3</v>
@@ -3599,16 +3590,16 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>5</v>
       </c>
       <c r="H57" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I57" t="n">
         <v>3</v>
@@ -3628,16 +3619,16 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
       </c>
-      <c r="F58" t="s">
-        <v>114</v>
-      </c>
       <c r="G58" t="n">
         <v>3</v>
       </c>
       <c r="H58" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I58" t="n">
         <v>3</v>
@@ -3657,16 +3648,16 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
       </c>
-      <c r="F59" t="s">
-        <v>116</v>
-      </c>
       <c r="G59" t="n">
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I59" t="n">
         <v>3</v>
@@ -3686,16 +3677,16 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
       </c>
-      <c r="F60" t="s">
-        <v>118</v>
-      </c>
       <c r="G60" t="n">
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I60" t="n">
         <v>3</v>
@@ -3715,16 +3706,16 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
       </c>
-      <c r="F61" t="s">
-        <v>120</v>
-      </c>
       <c r="G61" t="n">
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I61" t="n">
         <v>3</v>
@@ -3744,16 +3735,16 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
       </c>
-      <c r="F62" t="s">
-        <v>122</v>
-      </c>
       <c r="G62" t="n">
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I62" t="n">
         <v>3</v>
@@ -3773,16 +3764,16 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
       </c>
-      <c r="F63" t="s">
-        <v>124</v>
-      </c>
       <c r="G63" t="n">
         <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I63" t="n">
         <v>3</v>
@@ -3802,16 +3793,16 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
       </c>
-      <c r="F64" t="s">
-        <v>126</v>
-      </c>
       <c r="G64" t="n">
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I64" t="n">
         <v>3</v>
@@ -3831,16 +3822,16 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
       </c>
-      <c r="F65" t="s">
-        <v>128</v>
-      </c>
       <c r="G65" t="n">
         <v>3</v>
       </c>
       <c r="H65" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I65" t="n">
         <v>3</v>
@@ -3860,16 +3851,16 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>6</v>
       </c>
       <c r="H66" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I66" t="n">
         <v>3</v>
@@ -3889,16 +3880,16 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
       </c>
-      <c r="F67" t="s">
-        <v>132</v>
-      </c>
       <c r="G67" t="n">
         <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I67" t="n">
         <v>3</v>
@@ -3918,16 +3909,16 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
       </c>
-      <c r="F68" t="s">
-        <v>134</v>
-      </c>
       <c r="G68" t="n">
         <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I68" t="n">
         <v>3</v>
@@ -3947,16 +3938,16 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
       </c>
       <c r="H69" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I69" t="n">
         <v>3</v>
@@ -3976,16 +3967,16 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
       </c>
-      <c r="F70" t="s">
-        <v>138</v>
-      </c>
       <c r="G70" t="n">
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I70" t="n">
         <v>3</v>
@@ -4005,16 +3996,16 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>6</v>
       </c>
       <c r="H71" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I71" t="n">
         <v>3</v>
@@ -4034,16 +4025,16 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>4</v>
       </c>
       <c r="H72" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I72" t="n">
         <v>3</v>
@@ -4063,16 +4054,16 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
       </c>
-      <c r="F73" t="s">
-        <v>144</v>
-      </c>
       <c r="G73" t="n">
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I73" t="n">
         <v>3</v>
@@ -4092,16 +4083,16 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
       </c>
-      <c r="F74" t="s">
-        <v>146</v>
-      </c>
       <c r="G74" t="n">
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I74" t="n">
         <v>3</v>
@@ -4121,16 +4112,16 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
       </c>
       <c r="H75" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I75" t="n">
         <v>3</v>
@@ -4150,16 +4141,16 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
       </c>
-      <c r="F76" t="s">
-        <v>150</v>
-      </c>
       <c r="G76" t="n">
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I76" t="n">
         <v>3</v>
@@ -4179,16 +4170,16 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
       </c>
       <c r="H77" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I77" t="n">
         <v>3</v>
@@ -4208,16 +4199,16 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
       </c>
-      <c r="F78" t="s">
-        <v>154</v>
-      </c>
       <c r="G78" t="n">
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I78" t="n">
         <v>3</v>
@@ -4237,16 +4228,16 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
       </c>
-      <c r="F79" t="s">
-        <v>156</v>
-      </c>
       <c r="G79" t="n">
         <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I79" t="n">
         <v>3</v>
@@ -4266,16 +4257,16 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>5</v>
       </c>
       <c r="H80" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I80" t="n">
         <v>3</v>
@@ -4295,16 +4286,16 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
       </c>
-      <c r="F81" t="s">
-        <v>160</v>
-      </c>
       <c r="G81" t="n">
         <v>3</v>
       </c>
       <c r="H81" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I81" t="n">
         <v>3</v>
@@ -4324,16 +4315,16 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
       </c>
       <c r="H82" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I82" t="n">
         <v>3</v>
@@ -4353,16 +4344,16 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
       </c>
       <c r="H83" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I83" t="n">
         <v>3</v>
@@ -4382,16 +4373,16 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
       </c>
-      <c r="F84" t="s">
-        <v>166</v>
-      </c>
       <c r="G84" t="n">
         <v>1</v>
       </c>
       <c r="H84" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I84" t="n">
         <v>3</v>
@@ -4411,16 +4402,16 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>6</v>
       </c>
       <c r="H85" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I85" t="n">
         <v>3</v>
@@ -4440,16 +4431,16 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
       </c>
-      <c r="F86" t="s">
-        <v>170</v>
-      </c>
       <c r="G86" t="n">
         <v>1</v>
       </c>
       <c r="H86" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I86" t="n">
         <v>3</v>
@@ -4469,16 +4460,16 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
       </c>
-      <c r="F87" t="s">
-        <v>172</v>
-      </c>
       <c r="G87" t="n">
         <v>1</v>
       </c>
       <c r="H87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I87" t="n">
         <v>3</v>
@@ -4498,16 +4489,16 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
       </c>
-      <c r="F88" t="s">
-        <v>174</v>
-      </c>
       <c r="G88" t="n">
         <v>1</v>
       </c>
       <c r="H88" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I88" t="n">
         <v>3</v>
@@ -4527,16 +4518,16 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>7</v>
       </c>
       <c r="H89" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I89" t="n">
         <v>3</v>
@@ -4556,16 +4547,16 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
       </c>
-      <c r="F90" t="s">
-        <v>178</v>
-      </c>
       <c r="G90" t="n">
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I90" t="n">
         <v>3</v>
@@ -4585,16 +4576,16 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
       </c>
-      <c r="F91" t="s">
-        <v>180</v>
-      </c>
       <c r="G91" t="n">
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I91" t="n">
         <v>3</v>
@@ -4614,16 +4605,16 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
       </c>
-      <c r="F92" t="s">
-        <v>182</v>
-      </c>
       <c r="G92" t="n">
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I92" t="n">
         <v>3</v>
@@ -4643,16 +4634,16 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
       </c>
-      <c r="F93" t="s">
-        <v>184</v>
-      </c>
       <c r="G93" t="n">
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I93" t="n">
         <v>3</v>
@@ -4672,16 +4663,16 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
       </c>
-      <c r="F94" t="s">
-        <v>186</v>
-      </c>
       <c r="G94" t="n">
         <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I94" t="n">
         <v>3</v>
@@ -4701,16 +4692,16 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
       </c>
-      <c r="F95" t="s">
-        <v>188</v>
-      </c>
       <c r="G95" t="n">
         <v>1</v>
       </c>
       <c r="H95" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I95" t="n">
         <v>3</v>
@@ -4730,16 +4721,16 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" t="s">
         <v>189</v>
       </c>
-      <c r="F96" t="s">
-        <v>190</v>
-      </c>
       <c r="G96" t="n">
         <v>1</v>
       </c>
       <c r="H96" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I96" t="n">
         <v>3</v>
@@ -4759,16 +4750,16 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" t="s">
         <v>191</v>
       </c>
-      <c r="F97" t="s">
-        <v>192</v>
-      </c>
       <c r="G97" t="n">
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I97" t="n">
         <v>3</v>
@@ -4788,16 +4779,16 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
         <v>193</v>
       </c>
-      <c r="F98" t="s">
-        <v>194</v>
-      </c>
       <c r="G98" t="n">
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I98" t="n">
         <v>3</v>
@@ -4817,16 +4808,16 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
         <v>195</v>
       </c>
-      <c r="F99" t="s">
-        <v>196</v>
-      </c>
       <c r="G99" t="n">
         <v>1</v>
       </c>
       <c r="H99" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I99" t="n">
         <v>3</v>
@@ -4846,16 +4837,16 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
         <v>197</v>
       </c>
-      <c r="F100" t="s">
-        <v>198</v>
-      </c>
       <c r="G100" t="n">
         <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I100" t="n">
         <v>3</v>
@@ -4875,16 +4866,16 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" t="s">
         <v>199</v>
       </c>
-      <c r="F101" t="s">
-        <v>200</v>
-      </c>
       <c r="G101" t="n">
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I101" t="n">
         <v>3</v>
@@ -4904,16 +4895,16 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
       </c>
       <c r="H102" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I102" t="n">
         <v>3</v>
@@ -4933,16 +4924,16 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>72</v>
+      </c>
+      <c r="F103" t="s">
         <v>73</v>
       </c>
-      <c r="F103" t="s">
-        <v>74</v>
-      </c>
       <c r="G103" t="n">
         <v>1</v>
       </c>
       <c r="H103" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I103" t="n">
         <v>3</v>
@@ -4962,16 +4953,16 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>202</v>
+      </c>
+      <c r="F104" t="s">
         <v>203</v>
-      </c>
-      <c r="F104" t="s">
-        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
       </c>
       <c r="H104" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I104" t="n">
         <v>3</v>
@@ -4991,16 +4982,16 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>204</v>
+      </c>
+      <c r="F105" t="s">
         <v>205</v>
       </c>
-      <c r="F105" t="s">
-        <v>206</v>
-      </c>
       <c r="G105" t="n">
         <v>1</v>
       </c>
       <c r="H105" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I105" t="n">
         <v>3</v>
@@ -5020,16 +5011,16 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>206</v>
+      </c>
+      <c r="F106" t="s">
         <v>207</v>
       </c>
-      <c r="F106" t="s">
-        <v>208</v>
-      </c>
       <c r="G106" t="n">
         <v>3</v>
       </c>
       <c r="H106" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I106" t="n">
         <v>3</v>
@@ -5049,16 +5040,16 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>208</v>
+      </c>
+      <c r="F107" t="s">
         <v>209</v>
       </c>
-      <c r="F107" t="s">
-        <v>210</v>
-      </c>
       <c r="G107" t="n">
         <v>1</v>
       </c>
       <c r="H107" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I107" t="n">
         <v>3</v>
@@ -5078,16 +5069,16 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>210</v>
+      </c>
+      <c r="F108" t="s">
         <v>211</v>
       </c>
-      <c r="F108" t="s">
-        <v>212</v>
-      </c>
       <c r="G108" t="n">
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I108" t="n">
         <v>3</v>
@@ -5107,16 +5098,16 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>212</v>
+      </c>
+      <c r="F109" t="s">
         <v>213</v>
       </c>
-      <c r="F109" t="s">
-        <v>214</v>
-      </c>
       <c r="G109" t="n">
         <v>1</v>
       </c>
       <c r="H109" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I109" t="n">
         <v>3</v>
@@ -5136,16 +5127,16 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>214</v>
+      </c>
+      <c r="F110" t="s">
         <v>215</v>
       </c>
-      <c r="F110" t="s">
-        <v>216</v>
-      </c>
       <c r="G110" t="n">
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I110" t="n">
         <v>3</v>
@@ -5165,16 +5156,16 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>216</v>
+      </c>
+      <c r="F111" t="s">
         <v>217</v>
       </c>
-      <c r="F111" t="s">
-        <v>218</v>
-      </c>
       <c r="G111" t="n">
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I111" t="n">
         <v>3</v>
@@ -5194,16 +5185,16 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>218</v>
+      </c>
+      <c r="F112" t="s">
         <v>219</v>
       </c>
-      <c r="F112" t="s">
-        <v>220</v>
-      </c>
       <c r="G112" t="n">
         <v>1</v>
       </c>
       <c r="H112" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I112" t="n">
         <v>3</v>
@@ -5223,16 +5214,16 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>220</v>
+      </c>
+      <c r="F113" t="s">
         <v>221</v>
       </c>
-      <c r="F113" t="s">
-        <v>222</v>
-      </c>
       <c r="G113" t="n">
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I113" t="n">
         <v>3</v>
@@ -5252,16 +5243,16 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>5</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
       </c>
       <c r="H114" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I114" t="n">
         <v>3</v>
@@ -5281,16 +5272,16 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>19</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
       </c>
       <c r="H115" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I115" t="n">
         <v>3</v>
@@ -5310,16 +5301,16 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
       </c>
       <c r="H116" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I116" t="n">
         <v>3</v>
@@ -5339,16 +5330,16 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
       </c>
       <c r="H117" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I117" t="n">
         <v>3</v>
@@ -5368,16 +5359,16 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
       </c>
       <c r="H118" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I118" t="n">
         <v>3</v>
@@ -5397,16 +5388,16 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
       </c>
       <c r="H119" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I119" t="n">
         <v>3</v>
@@ -5426,16 +5417,16 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I120" t="n">
         <v>3</v>
@@ -5455,16 +5446,16 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>202</v>
+      </c>
+      <c r="F121" t="s">
         <v>203</v>
       </c>
-      <c r="F121" t="s">
-        <v>204</v>
-      </c>
       <c r="G121" t="n">
         <v>1</v>
       </c>
       <c r="H121" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I121" t="n">
         <v>3</v>
@@ -5484,16 +5475,16 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I122" t="n">
         <v>3</v>
@@ -5513,16 +5504,16 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
       </c>
       <c r="H123" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I123" t="n">
         <v>3</v>
@@ -5542,16 +5533,16 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
       </c>
       <c r="H124" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I124" t="n">
         <v>3</v>
@@ -5571,16 +5562,16 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
       </c>
       <c r="H125" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I125" t="n">
         <v>3</v>
@@ -5600,16 +5591,16 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
       </c>
       <c r="H126" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I126" t="n">
         <v>3</v>
@@ -5629,16 +5620,16 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
       </c>
       <c r="H127" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I127" t="n">
         <v>3</v>
@@ -5658,16 +5649,16 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
       </c>
       <c r="H128" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I128" t="n">
         <v>3</v>
@@ -5687,16 +5678,16 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
       </c>
       <c r="H129" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I129" t="n">
         <v>3</v>
@@ -5716,16 +5707,16 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
       </c>
       <c r="H130" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I130" t="n">
         <v>3</v>
@@ -5745,16 +5736,16 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
       </c>
       <c r="H131" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I131" t="n">
         <v>3</v>
@@ -5774,16 +5765,16 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
       </c>
       <c r="H132" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I132" t="n">
         <v>3</v>
@@ -5803,16 +5794,16 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
       </c>
       <c r="H133" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I133" t="n">
         <v>3</v>
@@ -5832,16 +5823,16 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
       </c>
       <c r="H134" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I134" t="n">
         <v>3</v>
@@ -5861,16 +5852,16 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
       </c>
       <c r="H135" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I135" t="n">
         <v>3</v>
@@ -5890,16 +5881,16 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
       </c>
       <c r="H136" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I136" t="n">
         <v>3</v>
@@ -5919,16 +5910,16 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
       </c>
       <c r="H137" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I137" t="n">
         <v>3</v>
@@ -5948,16 +5939,16 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
       </c>
       <c r="H138" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I138" t="n">
         <v>3</v>
@@ -5977,16 +5968,16 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I139" t="n">
         <v>3</v>
@@ -6006,16 +5997,16 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
       </c>
       <c r="H140" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I140" t="n">
         <v>3</v>
@@ -6035,16 +6026,16 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I141" t="n">
         <v>3</v>
@@ -6064,16 +6055,16 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I142" t="n">
         <v>3</v>
@@ -6093,16 +6084,16 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I143" t="n">
         <v>3</v>
@@ -6122,16 +6113,16 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
       </c>
       <c r="H144" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I144" t="n">
         <v>3</v>
@@ -6151,16 +6142,16 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
       </c>
       <c r="H145" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I145" t="n">
         <v>3</v>
@@ -6180,16 +6171,16 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
       </c>
       <c r="H146" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I146" t="n">
         <v>3</v>
@@ -6209,16 +6200,16 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G147" t="n">
         <v>12</v>
       </c>
       <c r="H147" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I147" t="n">
         <v>3</v>
@@ -6238,16 +6229,16 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I148" t="n">
         <v>3</v>
@@ -6267,16 +6258,16 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
       </c>
       <c r="H149" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I149" t="n">
         <v>3</v>
@@ -6296,16 +6287,16 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
       </c>
       <c r="H150" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I150" t="n">
         <v>3</v>
@@ -6325,16 +6316,16 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
       </c>
       <c r="H151" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I151" t="n">
         <v>3</v>
@@ -6354,16 +6345,16 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
       </c>
       <c r="H152" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I152" t="n">
         <v>3</v>
@@ -6383,16 +6374,16 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
       </c>
       <c r="H153" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I153" t="n">
         <v>3</v>
@@ -6412,16 +6403,16 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
       </c>
       <c r="H154" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I154" t="n">
         <v>3</v>
@@ -6441,16 +6432,16 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
       </c>
       <c r="H155" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I155" t="n">
         <v>3</v>
@@ -6470,16 +6461,16 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F156" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I156" t="n">
         <v>3</v>
@@ -6499,16 +6490,16 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F157" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I157" t="n">
         <v>3</v>
@@ -6528,16 +6519,16 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F158" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
       </c>
       <c r="H158" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I158" t="n">
         <v>3</v>
@@ -6557,16 +6548,16 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F159" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
       </c>
       <c r="H159" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I159" t="n">
         <v>3</v>
@@ -6586,16 +6577,16 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F160" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I160" t="n">
         <v>3</v>
@@ -6615,16 +6606,16 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F161" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I161" t="n">
         <v>3</v>
@@ -6644,16 +6635,16 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F162" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I162" t="n">
         <v>3</v>
@@ -6673,16 +6664,16 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F163" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I163" t="n">
         <v>3</v>
@@ -6702,16 +6693,16 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F164" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I164" t="n">
         <v>3</v>
@@ -6731,16 +6722,16 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F165" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
       </c>
       <c r="H165" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I165" t="n">
         <v>3</v>
@@ -6760,16 +6751,16 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F166" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
       </c>
       <c r="H166" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I166" t="n">
         <v>3</v>
@@ -6789,16 +6780,16 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F167" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I167" t="n">
         <v>3</v>
@@ -6818,16 +6809,16 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F168" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I168" t="n">
         <v>3</v>
@@ -6847,16 +6838,16 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F169" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I169" t="n">
         <v>3</v>
@@ -6876,16 +6867,16 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F170" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
       </c>
       <c r="H170" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I170" t="n">
         <v>3</v>
@@ -6905,16 +6896,16 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F171" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
       </c>
       <c r="H171" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I171" t="n">
         <v>3</v>
@@ -6934,16 +6925,16 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F172" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I172" t="n">
         <v>3</v>
@@ -6963,16 +6954,16 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F173" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I173" t="n">
         <v>3</v>
@@ -6992,16 +6983,16 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F174" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
       </c>
       <c r="H174" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I174" t="n">
         <v>3</v>
@@ -7021,16 +7012,16 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F175" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I175" t="n">
         <v>3</v>
@@ -7050,16 +7041,16 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F176" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
       </c>
       <c r="H176" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I176" t="n">
         <v>3</v>
@@ -7079,16 +7070,16 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F177" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
       </c>
       <c r="H177" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I177" t="n">
         <v>3</v>
@@ -7108,16 +7099,16 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F178" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
       </c>
       <c r="H178" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I178" t="n">
         <v>3</v>
@@ -7137,16 +7128,16 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F179" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
       </c>
       <c r="H179" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I179" t="n">
         <v>3</v>
@@ -7166,16 +7157,16 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F180" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
       </c>
       <c r="H180" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I180" t="n">
         <v>3</v>
@@ -7195,16 +7186,16 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F181" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I181" t="n">
         <v>3</v>
@@ -7224,16 +7215,16 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F182" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I182" t="n">
         <v>3</v>
@@ -7253,16 +7244,16 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F183" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I183" t="n">
         <v>3</v>
@@ -7282,16 +7273,16 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F184" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I184" t="n">
         <v>3</v>
@@ -7311,16 +7302,16 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F185" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I185" t="n">
         <v>3</v>
@@ -7340,16 +7331,16 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F186" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I186" t="n">
         <v>3</v>
@@ -7369,16 +7360,16 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F187" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
       </c>
       <c r="H187" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I187" t="n">
         <v>3</v>
@@ -7398,16 +7389,16 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F188" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
       </c>
       <c r="H188" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I188" t="n">
         <v>3</v>
@@ -7427,16 +7418,16 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F189" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
       </c>
       <c r="H189" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I189" t="n">
         <v>3</v>
@@ -7456,16 +7447,16 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F190" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I190" t="n">
         <v>3</v>
@@ -7485,16 +7476,16 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F191" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I191" t="n">
         <v>3</v>
@@ -7514,16 +7505,16 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F192" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
       </c>
       <c r="H192" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I192" t="n">
         <v>3</v>
@@ -7543,16 +7534,16 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F193" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
       </c>
       <c r="H193" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I193" t="n">
         <v>3</v>
@@ -7572,16 +7563,16 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F194" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
       </c>
       <c r="H194" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I194" t="n">
         <v>3</v>
@@ -7601,16 +7592,16 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F195" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I195" t="n">
         <v>3</v>
@@ -7630,16 +7621,16 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F196" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
       </c>
       <c r="H196" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I196" t="n">
         <v>3</v>
@@ -7659,16 +7650,16 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F197" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
       </c>
       <c r="H197" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I197" t="n">
         <v>3</v>
@@ -7688,16 +7679,16 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F198" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
       </c>
       <c r="H198" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I198" t="n">
         <v>3</v>
@@ -7717,16 +7708,16 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F199" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
       </c>
       <c r="H199" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I199" t="n">
         <v>3</v>
@@ -7746,16 +7737,16 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F200" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
       </c>
       <c r="H200" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I200" t="n">
         <v>3</v>
@@ -7775,16 +7766,16 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F201" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
       </c>
       <c r="H201" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I201" t="n">
         <v>3</v>
@@ -7804,16 +7795,16 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F202" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
       </c>
       <c r="H202" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I202" t="n">
         <v>3</v>
@@ -7833,16 +7824,16 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F203" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I203" t="n">
         <v>3</v>
@@ -7862,16 +7853,16 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F204" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
       </c>
       <c r="H204" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I204" t="n">
         <v>3</v>
@@ -7891,16 +7882,16 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F205" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
       </c>
       <c r="H205" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I205" t="n">
         <v>3</v>
@@ -7920,16 +7911,16 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F206" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
       </c>
       <c r="H206" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I206" t="n">
         <v>3</v>
@@ -7949,16 +7940,16 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F207" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
       </c>
       <c r="H207" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I207" t="n">
         <v>3</v>
@@ -7978,16 +7969,16 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F208" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
       </c>
       <c r="H208" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I208" t="n">
         <v>3</v>
@@ -8007,16 +7998,16 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F209" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I209" t="n">
         <v>3</v>
@@ -8036,16 +8027,16 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F210" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
       </c>
       <c r="H210" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I210" t="n">
         <v>3</v>
@@ -8065,16 +8056,16 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F211" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
       </c>
       <c r="H211" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I211" t="n">
         <v>3</v>
@@ -8094,16 +8085,16 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F212" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
       </c>
       <c r="H212" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I212" t="n">
         <v>3</v>
@@ -8123,16 +8114,16 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F213" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I213" t="n">
         <v>3</v>
@@ -8152,16 +8143,16 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F214" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I214" t="n">
         <v>3</v>
@@ -8181,16 +8172,16 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F215" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
       </c>
       <c r="H215" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I215" t="n">
         <v>3</v>
@@ -8210,16 +8201,16 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F216" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
       </c>
       <c r="H216" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I216" t="n">
         <v>3</v>
@@ -8239,16 +8230,16 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F217" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
       </c>
       <c r="H217" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I217" t="n">
         <v>3</v>
@@ -8268,16 +8259,16 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F218" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
       </c>
       <c r="H218" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I218" t="n">
         <v>3</v>
@@ -8297,16 +8288,16 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F219" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
       </c>
       <c r="H219" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I219" t="n">
         <v>3</v>
@@ -8326,16 +8317,16 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F220" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
       </c>
       <c r="H220" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I220" t="n">
         <v>3</v>
@@ -8355,16 +8346,16 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F221" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
       </c>
       <c r="H221" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I221" t="n">
         <v>3</v>
@@ -8384,16 +8375,16 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F222" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
       </c>
       <c r="H222" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I222" t="n">
         <v>3</v>
@@ -8413,16 +8404,16 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F223" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
       </c>
       <c r="H223" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I223" t="n">
         <v>3</v>
@@ -8442,16 +8433,16 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F224" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
       </c>
       <c r="H224" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I224" t="n">
         <v>3</v>
@@ -8471,16 +8462,16 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F225" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
       </c>
       <c r="H225" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I225" t="n">
         <v>3</v>
@@ -8500,16 +8491,16 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F226" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
       </c>
       <c r="H226" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I226" t="n">
         <v>3</v>
@@ -8529,16 +8520,16 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F227" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I227" t="n">
         <v>3</v>
@@ -8558,16 +8549,16 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F228" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
       </c>
       <c r="H228" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I228" t="n">
         <v>3</v>
@@ -8587,16 +8578,16 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F229" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I229" t="n">
         <v>3</v>
@@ -8616,16 +8607,16 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F230" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I230" t="n">
         <v>3</v>
@@ -8645,16 +8636,16 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F231" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I231" t="n">
         <v>3</v>
@@ -8674,16 +8665,16 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F232" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I232" t="n">
         <v>3</v>
@@ -8703,16 +8694,16 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F233" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
       </c>
       <c r="H233" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I233" t="n">
         <v>3</v>
@@ -8732,16 +8723,16 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F234" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I234" t="n">
         <v>3</v>
@@ -8761,16 +8752,16 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F235" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I235" t="n">
         <v>3</v>
@@ -8790,16 +8781,16 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F236" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I236" t="n">
         <v>3</v>
@@ -8819,16 +8810,16 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F237" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
       </c>
       <c r="H237" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I237" t="n">
         <v>3</v>
@@ -8848,16 +8839,16 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F238" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
       </c>
       <c r="H238" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I238" t="n">
         <v>3</v>
@@ -8877,16 +8868,16 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F239" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I239" t="n">
         <v>3</v>
@@ -8906,16 +8897,16 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F240" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
       </c>
       <c r="H240" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I240" t="n">
         <v>3</v>
@@ -8935,16 +8926,16 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F241" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G241" t="n">
         <v>4</v>
       </c>
       <c r="H241" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I241" t="n">
         <v>3</v>
@@ -8964,16 +8955,16 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F242" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I242" t="n">
         <v>3</v>
@@ -8993,16 +8984,16 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F243" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I243" t="n">
         <v>3</v>
@@ -9022,16 +9013,16 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F244" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
       </c>
       <c r="H244" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I244" t="n">
         <v>3</v>
@@ -9051,16 +9042,16 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F245" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
       </c>
       <c r="H245" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I245" t="n">
         <v>3</v>
@@ -9080,16 +9071,16 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F246" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I246" t="n">
         <v>3</v>
@@ -9109,16 +9100,16 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F247" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
       </c>
       <c r="H247" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I247" t="n">
         <v>3</v>
@@ -9138,16 +9129,16 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F248" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
       </c>
       <c r="H248" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I248" t="n">
         <v>3</v>
@@ -9167,16 +9158,16 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F249" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
       </c>
       <c r="H249" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I249" t="n">
         <v>3</v>
@@ -9196,16 +9187,16 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F250" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I250" t="n">
         <v>3</v>
@@ -9225,16 +9216,16 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F251" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
       </c>
       <c r="H251" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I251" t="n">
         <v>3</v>
@@ -9254,16 +9245,16 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F252" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I252" t="n">
         <v>3</v>
@@ -9283,16 +9274,16 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F253" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
       </c>
       <c r="H253" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I253" t="n">
         <v>3</v>
@@ -9312,16 +9303,16 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F254" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I254" t="n">
         <v>3</v>
@@ -9341,16 +9332,16 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F255" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I255" t="n">
         <v>3</v>
@@ -9370,16 +9361,16 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F256" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
       </c>
       <c r="H256" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I256" t="n">
         <v>3</v>
@@ -9399,16 +9390,16 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F257" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
       </c>
       <c r="H257" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I257" t="n">
         <v>3</v>
@@ -9428,16 +9419,16 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F258" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
       </c>
       <c r="H258" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I258" t="n">
         <v>3</v>
@@ -9457,16 +9448,16 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F259" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G259" t="n">
         <v>2</v>
       </c>
       <c r="H259" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I259" t="n">
         <v>3</v>
@@ -9486,16 +9477,16 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F260" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I260" t="n">
         <v>3</v>
@@ -9515,16 +9506,16 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F261" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I261" t="n">
         <v>3</v>
@@ -9544,16 +9535,16 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F262" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
       </c>
       <c r="H262" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I262" t="n">
         <v>3</v>
@@ -9573,16 +9564,16 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F263" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
       </c>
       <c r="H263" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I263" t="n">
         <v>3</v>
@@ -9602,16 +9593,16 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F264" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
       </c>
       <c r="H264" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I264" t="n">
         <v>3</v>
@@ -9631,16 +9622,16 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F265" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
       </c>
       <c r="H265" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I265" t="n">
         <v>3</v>
@@ -9660,16 +9651,16 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F266" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I266" t="n">
         <v>3</v>
@@ -9689,16 +9680,16 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F267" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I267" t="n">
         <v>3</v>
@@ -9718,16 +9709,16 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F268" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I268" t="n">
         <v>3</v>
@@ -9747,16 +9738,16 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F269" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
       </c>
       <c r="H269" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I269" t="n">
         <v>3</v>
